--- a/06-Methodology/Tools.xlsx
+++ b/06-Methodology/Tools.xlsx
@@ -1,31 +1,178 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28326"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\.shortcut-targets-by-id\1-GRWlYwsvpg511okYSRc8GdMbBNYbtoV\college\s1\5\merdeka\metode\temu 16\referensi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE92960-50DD-466B-8EAA-3F1FB6C3D6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Nama Lengkap</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>No. HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apa kendala yang saat ini Anda hadapi dalam mengelola inventaris media (gambar, video, dll.)? </t>
+  </si>
+  <si>
+    <t>Fitur apa saja yang Anda harapkan ada pada aplikasi inventory gallery ini?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bagaimana alur kerja Anda saat mengelola media atau dokumentasi PLUT saat ini?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apa saja jenis media yang ingin Anda masukkan ke dalam aplikasi (foto produk, video kegiatan, dll.)?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bagaimana cara Anda membayangkan aplikasi ini membantu mempermudah pekerjaan Anda?  </t>
+  </si>
+  <si>
+    <t>Jenis media apa yang paling sering dikelola?</t>
+  </si>
+  <si>
+    <t>Siapa yang akan menggunakan aplikasi ini?</t>
+  </si>
+  <si>
+    <t>Apakah Anda memerlukan fitur pencarian di aplikasi?</t>
+  </si>
+  <si>
+    <t>Bagaimana Anda ingin media diorganisasi?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fitur upload media secara langsung  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kategori untuk pengelompokan media  </t>
+  </si>
+  <si>
+    <t>Kemudahan mencari media tertentu</t>
+  </si>
+  <si>
+    <t>Semudah apa aplikasi ini digunakan?</t>
+  </si>
+  <si>
+    <t>Seberapa sering Anda mengelola inventaris media setiap bulan?</t>
+  </si>
+  <si>
+    <t>Administrator PLUT</t>
+  </si>
+  <si>
+    <t>Sangat diperlukan</t>
+  </si>
+  <si>
+    <t>nurulqamariahadijaya@gmail.com</t>
+  </si>
+  <si>
+    <t>Nurul Qamariah Adijaya</t>
+  </si>
+  <si>
+    <t>081365712727</t>
+  </si>
+  <si>
+    <t>Kurangnya aplikasi inventarisasi produk dan penjualan produk</t>
+  </si>
+  <si>
+    <t>Fitur inventarisasi dan sistem kasir</t>
+  </si>
+  <si>
+    <t>Mendata secara manual, dan melakukan laporan penjualan secara manual</t>
+  </si>
+  <si>
+    <t>Foto produk, jumlah produk masuk dan keluar, data laporan penjualan, sistem kasir</t>
+  </si>
+  <si>
+    <t>Yang penting Jelaskan terlebih dahulu secara jelas alur dari awal hingga aplikasi ini rilis</t>
+  </si>
+  <si>
+    <t>Inventarisasi produk dan sistem penjualan</t>
+  </si>
+  <si>
+    <t>Berdasarkan nama file</t>
+  </si>
+  <si>
+    <t>21-30 kali</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Pertanyaan</t>
+  </si>
+  <si>
+    <t>Jawaban</t>
+  </si>
+  <si>
+    <t>Apa kendala yang saat ini Anda hadapi dalam mengelola inventaris media (gambar, video, dll.)?</t>
+  </si>
+  <si>
+    <t>Bagaimana alur kerja Anda saat mengelola media atau dokumentasi PLUT saat ini?</t>
+  </si>
+  <si>
+    <t>Apa saja jenis media yang ingin Anda masukkan ke dalam aplikasi (foto produk, video kegiatan, dll.)?</t>
+  </si>
+  <si>
+    <t>Bagaimana cara Anda membayangkan aplikasi ini membantu mempermudah pekerjaan Anda?</t>
+  </si>
+  <si>
+    <t>Fitur upload media secara langsung</t>
+  </si>
+  <si>
+    <t>Kategori untuk pengelompokan media</t>
+  </si>
+  <si>
+    <t>Sangat penting</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -45,18 +192,166 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF5B3F86"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF442F65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF5B3F86"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF5B3F86"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF442F65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF5B3F86"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF442F65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5B3F86"/>
+          <bgColor rgb="FF5B3F86"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1">
+    <tableStyle name="Form Responses 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -68,117 +363,84 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:S2">
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Timestamp"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Email Address"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Nama Lengkap"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="No. HP"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Apa kendala yang saat ini Anda hadapi dalam mengelola inventaris media (gambar, video, dll.)? "/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Fitur apa saja yang Anda harapkan ada pada aplikasi inventory gallery ini?"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Bagaimana alur kerja Anda saat mengelola media atau dokumentasi PLUT saat ini?  "/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Apa saja jenis media yang ingin Anda masukkan ke dalam aplikasi (foto produk, video kegiatan, dll.)?  "/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Bagaimana cara Anda membayangkan aplikasi ini membantu mempermudah pekerjaan Anda?  "/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Jenis media apa yang paling sering dikelola?"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Siapa yang akan menggunakan aplikasi ini?"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Apakah Anda memerlukan fitur pencarian di aplikasi?"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Bagaimana Anda ingin media diorganisasi?"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Fitur upload media secara langsung  "/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Kategori untuk pengelompokan media  "/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Kemudahan mencari media tertentu"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Semudah apa aplikasi ini digunakan?"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Seberapa sering Anda mengelola inventaris media setiap bulan?"/>
+  </tableColumns>
+  <tableStyleInfo name="Form Responses 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -321,22 +583,324 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S23" sqref="Q9:S23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="18.90625" customWidth="1"/>
+    <col min="6" max="10" width="37.6328125" customWidth="1"/>
+    <col min="11" max="11" width="37.453125" customWidth="1"/>
+    <col min="12" max="12" width="36.6328125" customWidth="1"/>
+    <col min="13" max="13" width="37.6328125" customWidth="1"/>
+    <col min="14" max="14" width="36.453125" customWidth="1"/>
+    <col min="15" max="15" width="32" customWidth="1"/>
+    <col min="16" max="16" width="33.6328125" customWidth="1"/>
+    <col min="17" max="17" width="31.36328125" customWidth="1"/>
+    <col min="18" max="18" width="32" customWidth="1"/>
+    <col min="19" max="19" width="37.6328125" customWidth="1"/>
+    <col min="20" max="25" width="18.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>45621.605880648145</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="5">
+        <v>5</v>
+      </c>
+      <c r="P2" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>5</v>
+      </c>
+      <c r="R2" s="5">
+        <v>5</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q10" s="9">
+        <v>1</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q11" s="9">
+        <v>2</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q12" s="9">
+        <v>3</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q13" s="9">
+        <v>4</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="9">
+        <v>5</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q15" s="9">
+        <v>6</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q16" s="9">
+        <v>7</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="17:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q17" s="9">
+        <v>8</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="17:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q18" s="9">
+        <v>9</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="17:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q19" s="9">
+        <v>10</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="17:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q20" s="9">
+        <v>11</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="17:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q21" s="9">
+        <v>12</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="17:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q22" s="9">
+        <v>13</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="17:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q23" s="9">
+        <v>14</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>